--- a/data/input/absenteeism_data_16.xlsx
+++ b/data/input/absenteeism_data_16.xlsx
@@ -476,185 +476,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23226</v>
+        <v>30703</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guilherme Gonçalves</t>
+          <t>Srta. Joana Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>3114.2</v>
+        <v>7388.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>77243</v>
+        <v>50115</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juan Castro</t>
+          <t>Rebeca Novaes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>11946.25</v>
+        <v>8603.139999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99691</v>
+        <v>64533</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yasmin Ribeiro</t>
+          <t>Davi Lucca Nunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>9296.629999999999</v>
+        <v>8275.559999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41943</v>
+        <v>41723</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Otávio Duarte</t>
+          <t>Clara Gonçalves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>5641.12</v>
+        <v>8520.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>83109</v>
+        <v>6918</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Bryan Aragão</t>
+          <t>Gustavo Henrique Correia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>8753.700000000001</v>
+        <v>7667.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90164</v>
+        <v>27258</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bianca Nascimento</t>
+          <t>Stephany da Mota</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>6367.89</v>
+        <v>10487.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>75030</v>
+        <v>73347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>André Nogueira</t>
+          <t>Dra. Beatriz Farias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,89 +664,89 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>11711.1</v>
+        <v>3737.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65743</v>
+        <v>36794</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pietro Alves</t>
+          <t>Alexandre Cardoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>11433.8</v>
+        <v>6374.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4265</v>
+        <v>81906</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Lara Araújo</t>
+          <t>André Moreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>7490.43</v>
+        <v>2564.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99687</v>
+        <v>85691</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Gonçalves</t>
+          <t>Bruno da Mota</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>4361.59</v>
+        <v>6928.21</v>
       </c>
     </row>
   </sheetData>
